--- a/mis.excel_projectttt.xlsx
+++ b/mis.excel_projectttt.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akuaasokwah/ms_excel_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akuaasokwah/mis_excel_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A9134F-7E1D-7D41-BE5F-0A41E7817FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80206AA-DF60-4F4A-9EDA-5A2C36AB3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{E827852C-4CAB-F449-9C61-CB8F1EBAB951}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" activeTab="2" xr2:uid="{E827852C-4CAB-F449-9C61-CB8F1EBAB951}"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Collection" sheetId="1" r:id="rId1"/>
+    <sheet name="Process" sheetId="2" r:id="rId2"/>
+    <sheet name="Written Information" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart 1" sheetId="6" r:id="rId5"/>
+    <sheet name="Chart 2 " sheetId="7" r:id="rId6"/>
+    <sheet name="Chart 3" sheetId="8" r:id="rId7"/>
+    <sheet name="Chart 4 " sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,49 +43,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Paychex</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>Gross Profit</t>
   </si>
   <si>
     <t>Total Assets</t>
   </si>
   <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>Total Stockholder Equity</t>
-  </si>
-  <si>
     <t>Net Income</t>
   </si>
   <si>
     <t xml:space="preserve">Cash Flow From Operations </t>
   </si>
   <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>12,200,00</t>
-  </si>
-  <si>
-    <t>Balance</t>
+    <t xml:space="preserve">Total Liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Stockholder Equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Change in Cash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit </t>
+  </si>
+  <si>
+    <t>Total Stockholder Equitities</t>
+  </si>
+  <si>
+    <t>Cash Flow From Operations</t>
+  </si>
+  <si>
+    <t>Change in Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return on Equity </t>
+  </si>
+  <si>
+    <t>Return on Assets</t>
+  </si>
+  <si>
+    <t>Working Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profitability </t>
+  </si>
+  <si>
+    <t>Operating Cash Flow</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>Quality of Earnings</t>
+  </si>
+  <si>
+    <t>Total Liabilities vs Total Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Strength </t>
+  </si>
+  <si>
+    <t>Total Liabilities vs Cash Flow</t>
+  </si>
+  <si>
+    <t>Operating Efficiency</t>
+  </si>
+  <si>
+    <t>Debt and Capital</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,22 +161,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -118,59 +217,285 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,6 +508,836 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1835506336"/>
+        <c:axId val="1835675120"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1835506336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835675120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1835675120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835506336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBF577D-D818-ABE3-A3B1-AB04DCB8E458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,148 +1637,1045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2335AED-AA78-EE45-BB56-318E4630391F}">
-  <dimension ref="B2:H13"/>
+  <dimension ref="C2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45169</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44985</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="2">
+        <v>925800</v>
+      </c>
+      <c r="E4" s="2">
+        <v>859800</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1008100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>831000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12200000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10546400</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10603600</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9214300</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8612200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7053200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7202500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6009000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3587800</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3493200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3401000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3205300</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>419200</v>
+      </c>
+      <c r="E8" s="2">
+        <v>350400</v>
+      </c>
+      <c r="F8" s="2">
+        <v>467400</v>
+      </c>
+      <c r="G8" s="2">
+        <v>360300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>655800</v>
+      </c>
+      <c r="E9" s="2">
+        <v>409300</v>
+      </c>
+      <c r="F9" s="2">
+        <v>604200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>321600</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1749200</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-227500</v>
+      </c>
+      <c r="F10" s="2">
+        <v>737600</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-81300</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45077</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44712</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44347</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3554100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3255400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2785600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2759700</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10546400</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9635200</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9227200</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8550700</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7053200</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6550000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6279200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5769300</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3493200</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3085200</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2948000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2781400</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1557300</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1392800</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1097500</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1098100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1699400</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1505500</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1260300</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1440900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1206500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-894000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>163300</v>
+      </c>
+      <c r="G18" s="2">
+        <v>724600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ECB5E6-E714-E44F-B078-FE8995861BDC}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="15" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>'Data Collection'!C16</f>
+        <v>Net Income</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="str">
+        <f>'Data Collection'!C2</f>
+        <v>Paychex</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24" t="str">
+        <f>'Data Collection'!C11</f>
+        <v xml:space="preserve">Annual </v>
+      </c>
+      <c r="D2" s="4">
+        <v>45077</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1557300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3054100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10546400</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7053200</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3493200</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1669400</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1206500</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L9" si="0">G2-H2</f>
+        <v>3493200</v>
+      </c>
+      <c r="M2" s="5">
+        <f>IF(I2="",0,E2/I2)</f>
+        <v>0.44580900034352455</v>
+      </c>
+      <c r="N2" s="5">
+        <f>IF(G2="",0,E2/G2)</f>
+        <v>0.1476617613593264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="4">
+        <v>44712</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1392800</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3255400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9635200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6550000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3085200</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1505000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-894700</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>3085200</v>
+      </c>
+      <c r="M3" s="5">
+        <f>IF(I3="",0,E2/I3)</f>
+        <v>0.5047646830027227</v>
+      </c>
+      <c r="N3" s="5">
+        <f>IF(G3="",0,E3/G3)</f>
+        <v>0.14455330454998339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="4">
+        <v>44347</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1097500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2785600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9227200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6279000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2948000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1260300</v>
+      </c>
+      <c r="K4" s="2">
+        <v>163000</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>2948200</v>
+      </c>
+      <c r="M4" s="5">
+        <f>IF(I4="",0,E4/I4)</f>
+        <v>0.37228629579375849</v>
+      </c>
+      <c r="N4" s="5">
+        <f>IF(E4="",0,E4/G4)</f>
+        <v>0.11894182417201318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="4">
+        <v>43982</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1098100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2759700</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8550700</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5769300</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2781400</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1440900</v>
+      </c>
+      <c r="K5" s="2">
+        <v>724600</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>2781400</v>
+      </c>
+      <c r="M5" s="5">
+        <f>IF(I5="",0,E5/I5)</f>
+        <v>0.39480117926224206</v>
+      </c>
+      <c r="N5" s="5">
+        <f>IF(G5="",0,E5/G5)</f>
+        <v>0.12842223443694667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="str">
+        <f>'Data Collection'!C3</f>
+        <v xml:space="preserve">Quarter </v>
+      </c>
+      <c r="D6" s="4">
         <v>45169</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E6" s="2">
+        <v>419200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>925800</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12200000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8612200</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3587500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>655800</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1749200</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>3587800</v>
+      </c>
+      <c r="M6" s="5">
+        <f>IF(I6="",0,E6/I6)</f>
+        <v>0.11685017421602788</v>
+      </c>
+      <c r="N6" s="5">
+        <f>IF(G6="",0,E6/G6)</f>
+        <v>3.4360655737704915E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="4">
         <v>45077</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E7" s="2">
+        <v>350400</v>
+      </c>
+      <c r="F7" s="2">
+        <v>859800</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10546000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7053200</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3493200</v>
+      </c>
+      <c r="J7" s="2">
+        <v>409300</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-227500</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>3492800</v>
+      </c>
+      <c r="M7" s="5">
+        <f>IF(E7="",0,E7/I7)</f>
+        <v>0.10030917210580556</v>
+      </c>
+      <c r="N7" s="5">
+        <f>IF(G7="",0,E7/G7)</f>
+        <v>3.3225867627536508E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="4">
         <v>44985</v>
       </c>
-      <c r="G3" s="6">
+      <c r="E8" s="2">
+        <v>467400</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1008100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10603600</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7202500</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3401100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>604200</v>
+      </c>
+      <c r="K8" s="2">
+        <v>737600</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>3401100</v>
+      </c>
+      <c r="M8" s="5">
+        <f>IF(I8="",0,E8/I8)</f>
+        <v>0.13742612684131605</v>
+      </c>
+      <c r="N8" s="5">
+        <f>IF(G8="",0,E8/G8)</f>
+        <v>4.4079369270813684E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="4">
         <v>44895</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="E9" s="2">
+        <v>360300</v>
+      </c>
+      <c r="F9" s="2">
+        <v>831000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9214300</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6009000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3205300</v>
+      </c>
+      <c r="J9" s="2">
+        <v>321600</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-81300</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>3205300</v>
+      </c>
+      <c r="M9" s="5">
+        <f>IF(I9="",0,E9/I9)</f>
+        <v>0.11240757495398247</v>
+      </c>
+      <c r="N9" s="5">
+        <f>IF(G9="",0,E9/G9)</f>
+        <v>3.9102264957728748E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A2:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F11CED-2B81-C04A-98CE-8448A2F7728B}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="49"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="20" t="str">
+        <f>IF(Process!E6&gt;0,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D8" s="54">
+        <f>(Process!E6)</f>
+        <v>419200</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="20" t="str">
+        <f>IF(Process!J9&gt;0,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D9" s="56">
+        <f>Process!J9</f>
+        <v>321600</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="20" t="str">
+        <f>IF(Process!N6&gt;1%,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D10" s="18">
+        <f>Process!N6</f>
+        <v>3.4360655737704915E-2</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="35" t="str">
+        <f xml:space="preserve"> "Cash Flow=" &amp; DOLLAR(Process!J6,0) &amp;CHAR(10)&amp; "Net Income="&amp;DOLLAR(Process!E6,0)</f>
+        <v>Cash Flow=$655,800
+Net Income=$419,200</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="8" t="str">
+        <f>IF(Process!G6&gt;Process!H6,"Pass,""Fail")</f>
+        <v>Pass,"Fail</v>
+      </c>
+      <c r="D14" s="32" t="str">
+        <f>"Assets= " &amp;DOLLAR(Process!G6,0) &amp;CHAR(10)&amp; "Liabilities =" &amp;DOLLAR(Process!H6,0)</f>
+        <v>Assets= $12,200,000
+Liabilities =$8,612,200</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20" t="str">
+        <f>IF(Process!L6 &gt; 0,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D15" s="34">
+        <f>Process!L6</f>
+        <v>3587800</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="20" t="str">
+        <f>IF(Process!F6 &gt; 0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D18" s="28">
+        <f>Process!F6</f>
         <v>925800</v>
       </c>
-      <c r="E4" s="8">
-        <v>859800</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1008100</v>
-      </c>
-      <c r="G4" s="8">
-        <v>831000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10546400</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10603600</v>
-      </c>
-      <c r="G5" s="8">
-        <v>9214300</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8612200</v>
-      </c>
-      <c r="E6" s="8">
-        <v>7053200</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7202500</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6009000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="1"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="22" t="str">
+        <f>IF(Process!J6 &gt; Process!H6, "Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE340CA-8DB6-CC49-B948-0DF538B7DC81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7320A3-04DF-7F45-BA6D-F953B8DA92A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C000801-4242-D649-82E3-896D4CB7130B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB8A06E-68EF-D549-803F-9A19A712A5B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FF498F-3FDD-A643-9A49-42D490723205}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>